--- a/mobi_client/mobi_client/mobi_config/has_limit_state_excel/大地图动画表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/has_limit_state_excel/大地图动画表.xlsx
@@ -37,8 +37,10 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>2 聚焦区域
-3 显示区域icon</t>
+          <t xml:space="preserve">2 聚焦区域
+3 显示区域icon
+4.拉远镜头
+</t>
         </r>
       </text>
     </comment>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -100,24 +102,27 @@
     <t>float</t>
   </si>
   <si>
-    <t>LimitState</t>
-  </si>
-  <si>
-    <t>ID:SubQuest</t>
-  </si>
-  <si>
-    <t>IN:[1;2;3;4]</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>0.05;0.8</t>
+    <t>0.02;0.9</t>
   </si>
   <si>
     <t>看向整个大地图</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>常驻场景出现</t>
+  </si>
+  <si>
+    <t>看向昭离公馆</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -131,21 +136,6 @@
   </si>
   <si>
     <t>镜头拉回</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>test_3Dmap.泉舜公寓1</t>
-  </si>
-  <si>
-    <t>test_3Dmap.天目剧院1</t>
-  </si>
-  <si>
-    <t>test_3Dmap.整个地图1</t>
   </si>
 </sst>
 </file>
@@ -341,7 +331,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,12 +365,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,10 +684,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,16 +696,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,52 +717,52 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -787,16 +771,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,44 +795,41 @@
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,12 +864,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1237,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1322,386 +1300,246 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="10">
+        <f t="shared" ref="A4:A8" si="0">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1010001</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="F4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
-      <c r="A5" s="12">
-        <f>ROW()-3</f>
+      <c r="A5" s="10">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="12">
-        <v>1201</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="10">
+        <v>1010001</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10">
+        <v>5001</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="G5" s="12" t="s">
+    </row>
+    <row r="6" customFormat="1" spans="1:7">
+      <c r="A6" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1010001</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5002</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="12">
-        <f>ROW()-3</f>
-        <v>3</v>
-      </c>
-      <c r="B6" s="12">
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="12">
-        <v>1201</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>25</v>
+      <c r="C7" s="10">
+        <v>1010001</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5003</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="12">
-        <f t="shared" ref="A7:A21" si="0">ROW()-3</f>
-        <v>4</v>
-      </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1201</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="12">
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="12">
-        <v>1201</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1001</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="G8" s="12"/>
+      <c r="C8" s="10">
+        <v>1010001</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="10">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="12">
-        <f t="shared" si="0"/>
+    <row r="9" customFormat="1" spans="1:7">
+      <c r="A9" s="10">
+        <f>ROW()-3</f>
         <v>6</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="12">
-        <v>1201</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1001</v>
-      </c>
-      <c r="F9" s="12">
-        <v>2</v>
-      </c>
-      <c r="G9" s="12"/>
+      <c r="C9" s="10">
+        <v>1010001</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="12">
-        <f t="shared" si="0"/>
+      <c r="A10" s="10">
+        <f>ROW()-3</f>
         <v>7</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="12">
-        <v>1201</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="12"/>
+      <c r="C10" s="10">
+        <v>1010001</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="12">
-        <f t="shared" si="0"/>
+      <c r="A11" s="10">
+        <f>ROW()-3</f>
         <v>8</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>1</v>
       </c>
-      <c r="C11" s="12">
-        <v>1201</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2002</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="G11" s="12"/>
+      <c r="C11" s="10">
+        <v>1010001</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1001</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="12">
-        <f t="shared" si="0"/>
+      <c r="A12" s="10">
+        <f>ROW()-3</f>
         <v>9</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="C12" s="12">
-        <v>1201</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="12">
-        <v>2002</v>
-      </c>
-      <c r="F12" s="12">
-        <v>2</v>
-      </c>
-      <c r="G12" s="12"/>
+      <c r="C12" s="10">
+        <v>1010001</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="12">
-        <f t="shared" si="0"/>
+      <c r="A13" s="10">
+        <f>ROW()-3</f>
         <v>10</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="12">
-        <v>1201</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="10">
+        <v>1010001</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="12">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1201</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="12">
-        <v>3001</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="12">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12">
-        <v>1201</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="12">
-        <v>3001</v>
-      </c>
-      <c r="F15" s="12">
-        <v>2</v>
-      </c>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="12">
-        <v>1</v>
-      </c>
-      <c r="C16" s="12">
-        <v>1201</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="12">
-        <v>3101</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="12">
-        <v>1</v>
-      </c>
-      <c r="C17" s="12">
-        <v>1201</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="12">
-        <v>3002</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="E13" s="10">
+        <v>1001</v>
+      </c>
+      <c r="F13" s="10">
         <v>0.1</v>
       </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B18" s="12">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12">
-        <v>1201</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="12">
-        <v>3101</v>
-      </c>
-      <c r="F18" s="12">
-        <v>2</v>
-      </c>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="12">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B19" s="12">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12">
-        <v>1201</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="12">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B20" s="12">
-        <v>1</v>
-      </c>
-      <c r="C20" s="12">
-        <v>1201</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="12">
-        <v>1001</v>
-      </c>
-      <c r="F20" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="12"/>
+      <c r="G13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="D5:D20" numberStoredAsText="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>